--- a/mirage/TestData/Data.xlsx
+++ b/mirage/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12645" windowHeight="3210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10320" windowHeight="3510"/>
   </bookViews>
   <sheets>
     <sheet name="brand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>S.NO</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Reebok</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>FILA</t>
   </si>
 </sst>
 </file>
@@ -79,12 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +382,7 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,24 +390,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mirage/TestData/Data.xlsx
+++ b/mirage/TestData/Data.xlsx
@@ -10,7 +10,6 @@
     <sheet name="brand" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,13 +27,13 @@
     <t>Brands</t>
   </si>
   <si>
-    <t>Reebok</t>
-  </si>
-  <si>
     <t>Puma</t>
   </si>
   <si>
     <t>FILA</t>
+  </si>
+  <si>
+    <t>Reebok</t>
   </si>
 </sst>
 </file>
@@ -370,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -403,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -411,10 +410,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
